--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_7_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_7_sine_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.46000000000023</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0004835143765888894</v>
+        <v>0.001555301089511962</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0004835143765888894</v>
+        <v>0.001555301089511962</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>40.17647269451574</v>
+        <v>35.70455905087693</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[18.801434711586538, 61.55151067744495]</t>
+          <t>[10.729552898036786, 60.679565203717075]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0004511986994966133</v>
+        <v>0.006079044889316876</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0004511986994966133</v>
+        <v>0.006079044889316876</v>
       </c>
       <c r="P2" t="n">
-        <v>1.616395018964118</v>
+        <v>1.125815985971117</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.9245527929483472, 2.308237244979889]</t>
+          <t>[0.42139481039142357, 1.8302371615508113]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.43422152976791e-05</v>
+        <v>0.00238869108431139</v>
       </c>
       <c r="S2" t="n">
-        <v>2.43422152976791e-05</v>
+        <v>0.00238869108431139</v>
       </c>
       <c r="T2" t="n">
-        <v>59.48701996427037</v>
+        <v>60.07660081486982</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.22095755199366, 72.75308237654708]</t>
+          <t>[47.048848793742934, 73.1043528359967]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.143640737666374e-11</v>
+        <v>4.992228852529479e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>1.143640737666374e-11</v>
+        <v>4.992228852529479e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>17.42474474474491</v>
+        <v>19.2236236236238</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.8415615615617</v>
+        <v>16.59795795795811</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.00792792792812</v>
+        <v>21.8492892892895</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.46000000000023</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0002975827472253556</v>
+        <v>1.673746429897705e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002975827472253556</v>
+        <v>1.673746429897705e-06</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>45.29146657751498</v>
+        <v>62.137941438576</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[19.723948139715546, 70.85898501531442]</t>
+          <t>[36.12766776741083, 88.14821510974117]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0008685688425795757</v>
+        <v>1.71763194121155e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0008685688425795757</v>
+        <v>1.71763194121155e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.842816111114733</v>
+        <v>1.805079262422964</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.1761317842268095, 2.5095004380026573]</t>
+          <t>[1.3270791789938867, 2.283079345852042]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.363905745010996e-06</v>
+        <v>1.299194307691209e-09</v>
       </c>
       <c r="S3" t="n">
-        <v>1.363905745010996e-06</v>
+        <v>1.299194307691209e-09</v>
       </c>
       <c r="T3" t="n">
-        <v>61.84576419460416</v>
+        <v>74.94880168385393</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.39600507646823, 76.2955233127401]</t>
+          <t>[60.40507234810072, 89.49253101960714]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.386735419359411e-11</v>
+        <v>1.598721155460225e-13</v>
       </c>
       <c r="W3" t="n">
-        <v>4.386735419359411e-11</v>
+        <v>1.598721155460225e-13</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5793393393395</v>
+        <v>16.69173173173189</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.09009009009023</v>
+        <v>14.91003003003017</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.06858858858877</v>
+        <v>18.47343343343361</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.46000000000023</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.006703790521035202</v>
+        <v>0.00117845691444507</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006703790521035202</v>
+        <v>0.00117845691444507</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>35.92803155497534</v>
+        <v>40.42397054630602</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[7.827346565794187, 64.0287165441565]</t>
+          <t>[16.695486544876786, 64.15245454773526]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.01337845865421561</v>
+        <v>0.001298305862163174</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01337845865421561</v>
+        <v>0.001298305862163174</v>
       </c>
       <c r="P4" t="n">
-        <v>2.031500354573581</v>
+        <v>1.729605565039425</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.1761317842268095, 2.8868689249203516]</t>
+          <t>[0.9748685912040402, 2.4843425388748104]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.884701778465114e-05</v>
+        <v>3.268082670082606e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.884701778465114e-05</v>
+        <v>3.268082670082606e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>54.69541482306203</v>
+        <v>60.51531349010951</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[39.52499809863535, 69.86583154748871]</t>
+          <t>[46.16601295045676, 74.86461402976227]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.176712309345021e-09</v>
+        <v>6.656031281693231e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>4.176712309345021e-09</v>
+        <v>6.656031281693231e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>15.87483483483499</v>
+        <v>16.97305305305321</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.6810810810812</v>
+        <v>14.15983983983998</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.06858858858877</v>
+        <v>19.78626626626645</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.46000000000023</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04006470403505014</v>
+        <v>0.0002488499972076452</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04006470403505014</v>
+        <v>0.0002488499972076452</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>26.31904808687044</v>
+        <v>40.81719076439155</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.8572737322808024, 54.49536990602168]</t>
+          <t>[17.93158069124177, 63.702800837541325]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.06640433480111585</v>
+        <v>0.0008079502228093283</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06640433480111585</v>
+        <v>0.0008079502228093283</v>
       </c>
       <c r="P5" t="n">
-        <v>2.39628989192735</v>
+        <v>1.83023716155081</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.5723422051585008, 4.220237578696199]</t>
+          <t>[1.2264475824825016, 2.434026740619119]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.01117805010123751</v>
+        <v>2.178557780840862e-07</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01117805010123751</v>
+        <v>2.178557780840862e-07</v>
       </c>
       <c r="T5" t="n">
-        <v>54.27102469484069</v>
+        <v>61.05075811995365</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[40.01837557643603, 68.52367381324535]</t>
+          <t>[48.21608928297512, 73.88542695693218]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.048719555640787e-09</v>
+        <v>1.956435013994451e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>1.048719555640787e-09</v>
+        <v>1.956435013994451e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>14.51279279279293</v>
+        <v>16.59795795795812</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.702582582582655</v>
+        <v>14.34738738738752</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.32300300300321</v>
+        <v>18.84852852852871</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.46000000000023</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.608812924271732e-05</v>
+        <v>0.002329923373391662</v>
       </c>
       <c r="I6" t="n">
-        <v>3.608812924271732e-05</v>
+        <v>0.002329923373391662</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>42.65379052126651</v>
+        <v>39.07131599331672</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[19.967636888781726, 65.33994415375129]</t>
+          <t>[10.807232362354824, 67.33539962427861]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0004496224349950229</v>
+        <v>0.007820031344426104</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0004496224349950229</v>
+        <v>0.007820031344426104</v>
       </c>
       <c r="P6" t="n">
-        <v>2.245342497160273</v>
+        <v>2.056658253701426</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.7170266154755032, 2.7736583788450426]</t>
+          <t>[1.3396581285578089, 2.7736583788450426]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5.355205168200428e-11</v>
+        <v>6.677398358689857e-07</v>
       </c>
       <c r="S6" t="n">
-        <v>5.355205168200428e-11</v>
+        <v>6.677398358689857e-07</v>
       </c>
       <c r="T6" t="n">
-        <v>61.87282823234899</v>
+        <v>60.2038740861958</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.9697559404061, 73.77590052429188]</t>
+          <t>[45.40144173224427, 75.00630644014731]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.212363542890671e-13</v>
+        <v>1.816331529624904e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>1.212363542890671e-13</v>
+        <v>1.816331529624904e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>15.07639639639654</v>
+        <v>15.75399399399414</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.10378378378391</v>
+        <v>13.08144144144156</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.04900900900917</v>
+        <v>18.42654654654672</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.46000000000023</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.399402803110462e-07</v>
+        <v>0.005193241425624606</v>
       </c>
       <c r="I7" t="n">
-        <v>2.399402803110462e-07</v>
+        <v>0.005193241425624606</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>53.7530545090896</v>
+        <v>33.89604168091223</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[31.249544093339203, 76.25656492484]</t>
+          <t>[6.898944726915644, 60.89313863490882]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.721344467409125e-05</v>
+        <v>0.01502077889416831</v>
       </c>
       <c r="O7" t="n">
-        <v>1.721344467409125e-05</v>
+        <v>0.01502077889416831</v>
       </c>
       <c r="P7" t="n">
-        <v>2.19502669890458</v>
+        <v>2.295658295415965</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.7799213632951174, 2.6101320345140424]</t>
+          <t>[1.5912371198362725, 3.0000794709956584]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>6.94999613415348e-14</v>
+        <v>4.530598363139404e-08</v>
       </c>
       <c r="S7" t="n">
-        <v>6.94999613415348e-14</v>
+        <v>4.530598363139404e-08</v>
       </c>
       <c r="T7" t="n">
-        <v>59.608694419952</v>
+        <v>63.36525485727812</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[48.05962050665015, 71.15776833325386]</t>
+          <t>[49.35451592218115, 77.37599379237508]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.521005543736464e-13</v>
+        <v>8.894884828691829e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>1.521005543736464e-13</v>
+        <v>8.894884828691829e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>15.26426426426441</v>
+        <v>14.86314314314328</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.71435435435449</v>
+        <v>12.23747747747759</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.81417417417434</v>
+        <v>17.48880880880897</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.46000000000023</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0001388141133380483</v>
+        <v>0.00741806633750286</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001388141133380483</v>
+        <v>0.00741806633750286</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>47.25341696146295</v>
+        <v>33.09899465026462</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[21.780499411879234, 72.72633451104666]</t>
+          <t>[5.634738652551899, 60.56325064797734]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0005242862198986398</v>
+        <v>0.01927560075243062</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0005242862198986398</v>
+        <v>0.01927560075243062</v>
       </c>
       <c r="P8" t="n">
-        <v>2.811395227536812</v>
+        <v>2.383710942363427</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.19502669890458, 3.4277637561690444]</t>
+          <t>[1.679289766783734, 3.088132117943119]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>6.91691148801965e-12</v>
+        <v>1.913744029913289e-08</v>
       </c>
       <c r="S8" t="n">
-        <v>6.91691148801965e-12</v>
+        <v>1.913744029913289e-08</v>
       </c>
       <c r="T8" t="n">
-        <v>56.90346328795336</v>
+        <v>64.75078252314702</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[42.361709688845764, 71.44521688706095]</t>
+          <t>[50.498376305376574, 79.00318874091747]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.132037017574476e-10</v>
+        <v>7.780887045782947e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>5.132037017574476e-10</v>
+        <v>7.780887045782947e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>12.96288288288301</v>
+        <v>14.53493493493507</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.6615015015016</v>
+        <v>11.90926926926939</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.26426426426442</v>
+        <v>17.16060060060076</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.46000000000023</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>6.714507039817796e-06</v>
+        <v>0.0007142211502062512</v>
       </c>
       <c r="I9" t="n">
-        <v>6.714507039817796e-06</v>
+        <v>0.0007142211502062512</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>52.68042447672821</v>
+        <v>38.72899111235963</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[28.601032660147496, 76.75981629330892]</t>
+          <t>[12.503815417735836, 64.95416680698342]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>6.439378864153689e-05</v>
+        <v>0.004706386747864055</v>
       </c>
       <c r="O9" t="n">
-        <v>6.439378864153689e-05</v>
+        <v>0.004706386747864055</v>
       </c>
       <c r="P9" t="n">
-        <v>2.673026782333658</v>
+        <v>2.283079345852042</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.1824477493406578, 3.163605815326659]</t>
+          <t>[1.6792897667837332, 2.8868689249203507]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.597921877622866e-14</v>
+        <v>1.256266646265658e-09</v>
       </c>
       <c r="S9" t="n">
-        <v>2.597921877622866e-14</v>
+        <v>1.256266646265658e-09</v>
       </c>
       <c r="T9" t="n">
-        <v>58.18808135101988</v>
+        <v>68.15743867293939</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[44.71863949069085, 71.65752321134892]</t>
+          <t>[54.852793486685044, 81.46208385919374]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.36695116232022e-11</v>
+        <v>1.934008508897023e-13</v>
       </c>
       <c r="W9" t="n">
-        <v>3.36695116232022e-11</v>
+        <v>1.934008508897023e-13</v>
       </c>
       <c r="X9" t="n">
-        <v>13.47951951951965</v>
+        <v>14.91003003003017</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.64780780780792</v>
+        <v>12.65945945945958</v>
       </c>
       <c r="Z9" t="n">
-        <v>15.31123123123138</v>
+        <v>17.16060060060076</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.46000000000023</v>
+        <v>23.42000000000022</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.816608662554621e-06</v>
+        <v>1.781911666998148e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>3.816608662554621e-06</v>
+        <v>1.781911666998148e-06</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>53.94964847629508</v>
+        <v>55.27667914351242</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[29.98202952774257, 77.9172674248476]</t>
+          <t>[30.350489931940558, 80.20286835508429]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.268291315079331e-05</v>
+        <v>5.304908240333361e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>4.268291315079331e-05</v>
+        <v>5.304908240333361e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>2.798816277972889</v>
+        <v>2.698184681461504</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.320816194543811, 3.276816361401967]</t>
+          <t>[2.220184598032427, 3.176184764890581]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>7.993605777301127e-15</v>
       </c>
       <c r="S10" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>7.993605777301127e-15</v>
       </c>
       <c r="T10" t="n">
-        <v>60.06081921426763</v>
+        <v>65.21226575733287</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[46.64347679702007, 73.47816163151519]</t>
+          <t>[52.010004227531056, 78.41452728713469]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.20348175869367e-11</v>
+        <v>6.108447081487611e-13</v>
       </c>
       <c r="W10" t="n">
-        <v>1.20348175869367e-11</v>
+        <v>6.108447081487611e-13</v>
       </c>
       <c r="X10" t="n">
-        <v>13.00984984984997</v>
+        <v>13.36276276276289</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.22510510510521</v>
+        <v>11.58106106106117</v>
       </c>
       <c r="Z10" t="n">
-        <v>14.79459459459474</v>
+        <v>15.14446446446461</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.78000000000012</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009088711282370099</v>
+        <v>3.396090418394948e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0009088711282370099</v>
+        <v>3.396090418394948e-05</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>37.74958245134818</v>
+        <v>45.54318881190149</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[13.800186723482938, 61.69897817921341]</t>
+          <t>[23.07796465693086, 68.00841296687211]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.002706252526332387</v>
+        <v>0.0001799166307629996</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002706252526332387</v>
+        <v>0.0001799166307629996</v>
       </c>
       <c r="P11" t="n">
-        <v>2.962342622303889</v>
+        <v>2.88686892492035</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[2.207605648468503, 3.7170795961392757]</t>
+          <t>[2.3082372449798885, 3.465500604860812]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>4.735263292587888e-10</v>
+        <v>4.46753745109163e-13</v>
       </c>
       <c r="S11" t="n">
-        <v>4.735263292587888e-10</v>
+        <v>4.46753745109163e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>58.0096633658576</v>
+        <v>61.61336720807692</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.423356756392685, 71.5959699753225]</t>
+          <t>[48.62902823168183, 74.597706184472]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.69817518222726e-11</v>
+        <v>2.106315122318847e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>4.69817518222726e-11</v>
+        <v>2.106315122318847e-12</v>
       </c>
       <c r="X11" t="n">
-        <v>12.03987987987994</v>
+        <v>12.31891891891899</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.303543543543588</v>
+        <v>10.2201401401402</v>
       </c>
       <c r="Z11" t="n">
-        <v>14.7762162162163</v>
+        <v>14.41769769769777</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.78000000000012</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0005931805829761938</v>
+        <v>0.002934131698602349</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0005931805829761938</v>
+        <v>0.002934131698602349</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>30.71329449263425</v>
+        <v>30.68498438606224</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[13.90819503656786, 47.518393948700634]</t>
+          <t>[10.68568376243529, 50.68428500968919]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0006194075380669961</v>
+        <v>0.003424944604086599</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0006194075380669961</v>
+        <v>0.003424944604086599</v>
       </c>
       <c r="P12" t="n">
-        <v>3.075553168379197</v>
+        <v>3.037816319687427</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[2.3333951441077363, 3.8177111926506586]</t>
+          <t>[2.1824477493406564, 3.8931848900341985]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.084914380555801e-10</v>
+        <v>6.045938194532141e-09</v>
       </c>
       <c r="S12" t="n">
-        <v>1.084914380555801e-10</v>
+        <v>6.045938194532141e-09</v>
       </c>
       <c r="T12" t="n">
-        <v>51.38784800595801</v>
+        <v>51.5202597002986</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[40.71800313278915, 62.05769287912686]</t>
+          <t>[39.25628137597354, 63.78423802462365]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.337152610858539e-12</v>
+        <v>7.422173986526559e-11</v>
       </c>
       <c r="W12" t="n">
-        <v>1.337152610858539e-12</v>
+        <v>7.422173986526559e-11</v>
       </c>
       <c r="X12" t="n">
-        <v>11.62942942942949</v>
+        <v>11.77141141141147</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.938698698698751</v>
+        <v>8.668868868868913</v>
       </c>
       <c r="Z12" t="n">
-        <v>14.32016016016023</v>
+        <v>14.87395395395404</v>
       </c>
     </row>
     <row r="13">
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.78000000000012</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.04154799308648438</v>
+        <v>1.261997082058208e-06</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04154799308648438</v>
+        <v>1.261997082058208e-06</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>29.61660239061076</v>
+        <v>56.80931348883846</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-1.3132961809632064, 60.54650096218473]</t>
+          <t>[34.180649561069245, 79.43797741660768]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.06010527743329286</v>
+        <v>7.622004761786982e-06</v>
       </c>
       <c r="O13" t="n">
-        <v>0.06010527743329286</v>
+        <v>7.622004761786982e-06</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.402579366709311</v>
+        <v>-2.943474197958004</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-4.9057903299300065, 0.1006315965113842]</t>
+          <t>[-3.421474281387081, -2.4654741145289276]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.05952646182121146</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="S13" t="n">
-        <v>0.05952646182121146</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="T13" t="n">
-        <v>65.29173953979881</v>
+        <v>64.52442498868685</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[49.20007444829713, 81.3834046313005]</t>
+          <t>[51.009201511065534, 78.03964846630817]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.938256222189239e-10</v>
+        <v>1.748823308389547e-12</v>
       </c>
       <c r="W13" t="n">
-        <v>1.938256222189239e-10</v>
+        <v>1.748823308389547e-12</v>
       </c>
       <c r="X13" t="n">
-        <v>8.710670670670716</v>
+        <v>10.67639639639645</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.3648448448448462</v>
+        <v>8.942622622622673</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.78618618618628</v>
+        <v>12.41017017017023</v>
       </c>
     </row>
     <row r="14">
@@ -1597,7 +1597,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.78000000000012</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1538006258079222</v>
+        <v>0.0002246589376664332</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1538006258079222</v>
+        <v>0.0002246589376664332</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>24.22229462119047</v>
+        <v>36.83721159724186</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-8.2337872999613, 56.67837654234224]</t>
+          <t>[16.071941928874757, 57.602481265608965]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.1397876767608519</v>
+        <v>0.0008554962925517717</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1397876767608519</v>
+        <v>0.0008554962925517717</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.830263651882697</v>
+        <v>-2.767368904063081</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-5.937264194171701, 0.27673689040630745]</t>
+          <t>[-3.40889533182316, -2.1258424763030024]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.07316464494184349</v>
+        <v>3.509814661128985e-11</v>
       </c>
       <c r="S14" t="n">
-        <v>0.07316464494184349</v>
+        <v>3.509814661128985e-11</v>
       </c>
       <c r="T14" t="n">
-        <v>64.99670417721077</v>
+        <v>66.46058657004588</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[47.24847596614923, 82.74493238827232]</t>
+          <t>[54.6677051742024, 78.25346796588934]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.831974432737638e-09</v>
+        <v>8.43769498715119e-15</v>
       </c>
       <c r="W14" t="n">
-        <v>2.831974432737638e-09</v>
+        <v>8.43769498715119e-15</v>
       </c>
       <c r="X14" t="n">
-        <v>10.26126126126132</v>
+        <v>10.03763763763769</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.003323323323327</v>
+        <v>7.71073073073077</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.52584584584596</v>
+        <v>12.36454454454461</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.78000000000012</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1.882478034787027e-05</v>
+        <v>2.308684564844565e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>1.882478034787027e-05</v>
+        <v>2.308684564844565e-05</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>44.32352520845232</v>
+        <v>48.42129024025861</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[21.065942512657696, 67.58110790424695]</t>
+          <t>[26.65181906932007, 70.19076141119714]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.0003841370023809354</v>
+        <v>5.079719438549901e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0003841370023809354</v>
+        <v>5.079719438549901e-05</v>
       </c>
       <c r="P15" t="n">
-        <v>-2.339684618889696</v>
+        <v>-1.773631888513156</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-2.8302636518826967, -1.8491055858966945]</t>
+          <t>[-2.3271056693257726, -1.2201581077005401]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.80544468264543e-12</v>
+        <v>6.593252788178461e-08</v>
       </c>
       <c r="S15" t="n">
-        <v>1.80544468264543e-12</v>
+        <v>6.593252788178461e-08</v>
       </c>
       <c r="T15" t="n">
-        <v>71.30547425659182</v>
+        <v>60.91827059024602</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[59.43718046507928, 83.17376804810436]</t>
+          <t>[48.02293358201047, 73.81360759848158]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>2.41273667711539e-12</v>
       </c>
       <c r="W15" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>2.41273667711539e-12</v>
       </c>
       <c r="X15" t="n">
-        <v>8.482642642642688</v>
+        <v>6.433213213213246</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.704024024024058</v>
+        <v>4.425685685685708</v>
       </c>
       <c r="Z15" t="n">
-        <v>10.26126126126132</v>
+        <v>8.440740740740786</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.78000000000012</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>4.458621194469714e-08</v>
+        <v>2.074588701694857e-05</v>
       </c>
       <c r="I16" t="n">
-        <v>4.458621194469714e-08</v>
+        <v>2.074588701694857e-05</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>57.18475766485634</v>
+        <v>55.22409380097406</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[37.89123478327849, 76.47828054643419]</t>
+          <t>[30.54446095444564, 79.90372664750248]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.463356481603341e-07</v>
+        <v>4.655771876027615e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>3.463356481603341e-07</v>
+        <v>4.655771876027615e-05</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.723316090257464</v>
+        <v>-1.710737140693541</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-2.1132635267390807, -1.3333686537758478]</t>
+          <t>[-2.213895123250465, -1.2075791581366175]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.749000944073487e-11</v>
+        <v>1.713196517982851e-08</v>
       </c>
       <c r="S16" t="n">
-        <v>1.749000944073487e-11</v>
+        <v>1.713196517982851e-08</v>
       </c>
       <c r="T16" t="n">
-        <v>59.5055147853303</v>
+        <v>65.40628256139755</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[48.30968401881495, 70.70134555184565]</t>
+          <t>[50.80705688997108, 80.00550823282401]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>5.88418203051333e-14</v>
+        <v>1.174216279764551e-11</v>
       </c>
       <c r="W16" t="n">
-        <v>5.88418203051333e-14</v>
+        <v>1.174216279764551e-11</v>
       </c>
       <c r="X16" t="n">
-        <v>6.247967967968002</v>
+        <v>6.20508508508512</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.834194194194218</v>
+        <v>4.380060060060085</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.661741741741785</v>
+        <v>8.030110110110154</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>22.78000000000012</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.002891754859944973</v>
+        <v>2.297124310879362e-06</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002891754859944973</v>
+        <v>2.297124310879362e-06</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>32.48255594087924</v>
+        <v>62.9710701062537</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[8.82219688792987, 56.14291499382862]</t>
+          <t>[39.1561645661434, 86.785975646364]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.00822159644548881</v>
+        <v>3.088420031938099e-06</v>
       </c>
       <c r="O17" t="n">
-        <v>0.00822159644548881</v>
+        <v>3.088420031938099e-06</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.9434212172942322</v>
+        <v>-1.496894998106848</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-1.6604213424378491, -0.22642109215061534]</t>
+          <t>[-1.9497371824080787, -1.0440528138056173]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.01106395984489339</v>
+        <v>3.284650063051231e-08</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01106395984489339</v>
+        <v>3.284650063051231e-08</v>
       </c>
       <c r="T17" t="n">
-        <v>56.23417959132135</v>
+        <v>76.02830642864873</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[43.60445943654952, 68.86389974609318]</t>
+          <t>[61.24395107937357, 90.81266177792389]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>1.406808003423521e-11</v>
+        <v>1.711963903971991e-13</v>
       </c>
       <c r="W17" t="n">
-        <v>1.406808003423521e-11</v>
+        <v>1.711963903971991e-13</v>
       </c>
       <c r="X17" t="n">
-        <v>3.420420420420438</v>
+        <v>5.429449449449475</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.8209009009009032</v>
+        <v>3.786926926926946</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.019939939939973</v>
+        <v>7.071971971972004</v>
       </c>
     </row>
     <row r="18">
@@ -1957,69 +1957,69 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>22.78000000000012</v>
+        <v>22.79000000000012</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.005465396628247521</v>
+        <v>3.988237133545347e-06</v>
       </c>
       <c r="I18" t="n">
-        <v>0.005465396628247521</v>
+        <v>3.988237133545347e-06</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>39.1293330508373</v>
+        <v>59.55982923990556</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[11.12193499780885, 67.13673110386574]</t>
+          <t>[34.11292705793103, 85.00673142188009]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.007232625275983118</v>
+        <v>2.367740570607957e-05</v>
       </c>
       <c r="O18" t="n">
-        <v>0.007232625275983118</v>
+        <v>2.367740570607957e-05</v>
       </c>
       <c r="P18" t="n">
-        <v>-1.308210754648002</v>
+        <v>-1.283052855520156</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[-2.213895123250465, -0.4025263860455386]</t>
+          <t>[-1.7358950398213873, -0.8302106712189241]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>0.005611690508154021</v>
+        <v>8.494301764194745e-07</v>
       </c>
       <c r="S18" t="n">
-        <v>0.005611690508154021</v>
+        <v>8.494301764194745e-07</v>
       </c>
       <c r="T18" t="n">
-        <v>60.45346796618325</v>
+        <v>58.57853839043091</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[44.46167189425954, 76.44526403810697]</t>
+          <t>[44.11535443297835, 73.04172234788348]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>1.264590876459692e-09</v>
+        <v>2.035782653564411e-10</v>
       </c>
       <c r="W18" t="n">
-        <v>1.264590876459692e-09</v>
+        <v>2.035782653564411e-10</v>
       </c>
       <c r="X18" t="n">
-        <v>4.742982982983008</v>
+        <v>4.653813813813837</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.459379379379386</v>
+        <v>3.011291291291306</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.02658658658663</v>
+        <v>6.296336336336369</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_7_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_7_sine_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.42000000000022</v>
+        <v>23.44000000000023</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001555301089511962</v>
+        <v>0.001246815498004872</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001555301089511962</v>
+        <v>0.001246815498004872</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>35.70455905087693</v>
+        <v>44.94297894576084</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[10.729552898036786, 60.679565203717075]</t>
+          <t>[17.83123600580292, 72.05472188571876]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.006079044889316876</v>
+        <v>0.001697135059273602</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006079044889316876</v>
+        <v>0.001697135059273602</v>
       </c>
       <c r="P2" t="n">
-        <v>1.125815985971117</v>
+        <v>1.70444766591158</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.42139481039142357, 1.8302371615508113]</t>
+          <t>[0.9748685912040402, 2.43402674061912]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.00238869108431139</v>
+        <v>2.436743965850141e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>0.00238869108431139</v>
+        <v>2.436743965850141e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>60.07660081486982</v>
+        <v>56.14839668639956</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[47.048848793742934, 73.1043528359967]</t>
+          <t>[40.12104576369909, 72.17574760910003]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.992228852529479e-12</v>
+        <v>8.417569752339205e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>4.992228852529479e-12</v>
+        <v>8.417569752339205e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>19.2236236236238</v>
+        <v>17.08140140140156</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.59795795795811</v>
+        <v>14.35963963963977</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.8492892892895</v>
+        <v>19.80316316316335</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.42000000000022</v>
+        <v>23.44000000000023</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.673746429897705e-06</v>
+        <v>0.000245931872621119</v>
       </c>
       <c r="I3" t="n">
-        <v>1.673746429897705e-06</v>
+        <v>0.000245931872621119</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>62.137941438576</v>
+        <v>44.98070939165189</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[36.12766776741083, 88.14821510974117]</t>
+          <t>[18.863405786413423, 71.09801299689036]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.71763194121155e-05</v>
+        <v>0.00116329853689745</v>
       </c>
       <c r="O3" t="n">
-        <v>1.71763194121155e-05</v>
+        <v>0.00116329853689745</v>
       </c>
       <c r="P3" t="n">
-        <v>1.805079262422964</v>
+        <v>1.956026657190042</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.3270791789938867, 2.283079345852042]</t>
+          <t>[1.3396581285578106, 2.5723951858222724]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.299194307691209e-09</v>
+        <v>8.16990777252613e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>1.299194307691209e-09</v>
+        <v>8.16990777252613e-08</v>
       </c>
       <c r="T3" t="n">
-        <v>74.94880168385393</v>
+        <v>54.54426270212645</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[60.40507234810072, 89.49253101960714]</t>
+          <t>[40.37205127958569, 68.7164741246672]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.598721155460225e-13</v>
+        <v>7.942959623363777e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>1.598721155460225e-13</v>
+        <v>7.942959623363777e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>16.69173173173189</v>
+        <v>16.14286286286302</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.91003003003017</v>
+        <v>13.84344344344358</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.47343343343361</v>
+        <v>18.44228228228246</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.42000000000022</v>
+        <v>23.44000000000023</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00117845691444507</v>
+        <v>0.02073153468372291</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00117845691444507</v>
+        <v>0.02073153468372291</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>40.42397054630602</v>
+        <v>30.34847966328488</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[16.695486544876786, 64.15245454773526]</t>
+          <t>[1.789071170748194, 58.907888155821574]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.001298305862163174</v>
+        <v>0.03778835169639971</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001298305862163174</v>
+        <v>0.03778835169639971</v>
       </c>
       <c r="P4" t="n">
-        <v>1.729605565039425</v>
+        <v>2.169868799776734</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.9748685912040402, 2.4843425388748104]</t>
+          <t>[0.9497106920761933, 3.3900269074772744]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.268082670082606e-05</v>
+        <v>0.0008334203360820247</v>
       </c>
       <c r="S4" t="n">
-        <v>3.268082670082606e-05</v>
+        <v>0.0008334203360820247</v>
       </c>
       <c r="T4" t="n">
-        <v>60.51531349010951</v>
+        <v>71.46560102437283</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[46.16601295045676, 74.86461402976227]</t>
+          <t>[56.66519962172822, 86.26600242701744]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.656031281693231e-11</v>
+        <v>1.235234137197949e-12</v>
       </c>
       <c r="W4" t="n">
-        <v>6.656031281693231e-11</v>
+        <v>1.235234137197949e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>16.97305305305321</v>
+        <v>15.34510510510525</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.15983983983998</v>
+        <v>10.7931931931933</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.78626626626645</v>
+        <v>19.89701701701721</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.42000000000022</v>
+        <v>23.44000000000023</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0002488499972076452</v>
+        <v>0.0002124128823159932</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002488499972076452</v>
+        <v>0.0002124128823159932</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>40.81719076439155</v>
+        <v>41.55165151625297</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[17.93158069124177, 63.702800837541325]</t>
+          <t>[17.389886254768413, 65.71341677773752]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0008079502228093283</v>
+        <v>0.001180789130553528</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0008079502228093283</v>
+        <v>0.001180789130553528</v>
       </c>
       <c r="P5" t="n">
-        <v>1.83023716155081</v>
+        <v>1.968605606753965</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.2264475824825016, 2.434026740619119]</t>
+          <t>[1.3522370781217328, 2.5849741353861964]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.178557780840862e-07</v>
+        <v>7.096848131382671e-08</v>
       </c>
       <c r="S5" t="n">
-        <v>2.178557780840862e-07</v>
+        <v>7.096848131382671e-08</v>
       </c>
       <c r="T5" t="n">
-        <v>61.05075811995365</v>
+        <v>50.92156550831295</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[48.21608928297512, 73.88542695693218]</t>
+          <t>[37.97061386526703, 63.87251715135887]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.956435013994451e-12</v>
+        <v>4.520013252573563e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>1.956435013994451e-12</v>
+        <v>4.520013252573563e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>16.59795795795812</v>
+        <v>16.09593593593609</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.34738738738752</v>
+        <v>13.79651651651665</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.84852852852871</v>
+        <v>18.39535535535553</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.42000000000022</v>
+        <v>23.44000000000023</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002329923373391662</v>
+        <v>4.809480514234021e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002329923373391662</v>
+        <v>4.809480514234021e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>39.07131599331672</v>
+        <v>40.27072232341349</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[10.807232362354824, 67.33539962427861]</t>
+          <t>[18.61481295090294, 61.92663169592403]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.007820031344426104</v>
+        <v>0.0005100051500805947</v>
       </c>
       <c r="O6" t="n">
-        <v>0.007820031344426104</v>
+        <v>0.0005100051500805947</v>
       </c>
       <c r="P6" t="n">
-        <v>2.056658253701426</v>
+        <v>2.471763589310888</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.3396581285578089, 2.7736583788450426]</t>
+          <t>[1.9434477076261185, 3.000079470995658]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>6.677398358689857e-07</v>
+        <v>3.234079670733081e-12</v>
       </c>
       <c r="S6" t="n">
-        <v>6.677398358689857e-07</v>
+        <v>3.234079670733081e-12</v>
       </c>
       <c r="T6" t="n">
-        <v>60.2038740861958</v>
+        <v>61.66105584906489</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[45.40144173224427, 75.00630644014731]</t>
+          <t>[50.15644554401395, 73.16566615411583]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.816331529624904e-10</v>
+        <v>4.485301019485632e-14</v>
       </c>
       <c r="W6" t="n">
-        <v>1.816331529624904e-10</v>
+        <v>4.485301019485632e-14</v>
       </c>
       <c r="X6" t="n">
-        <v>15.75399399399414</v>
+        <v>14.218858858859</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.08144144144156</v>
+        <v>12.24792792792805</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.42654654654672</v>
+        <v>16.18978978978994</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.42000000000022</v>
+        <v>23.44000000000023</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005193241425624606</v>
+        <v>1.088441996932588e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005193241425624606</v>
+        <v>1.088441996932588e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>33.89604168091223</v>
+        <v>54.35603596169413</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[6.898944726915644, 60.89313863490882]</t>
+          <t>[26.86069331747445, 81.85137860591382]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.01502077889416831</v>
+        <v>0.0002469124108848142</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01502077889416831</v>
+        <v>0.0002469124108848142</v>
       </c>
       <c r="P7" t="n">
         <v>2.295658295415965</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.5912371198362725, 3.0000794709956584]</t>
+          <t>[1.8050792624229643, 2.7862373284089657]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.530598363139404e-08</v>
+        <v>3.214983834709528e-12</v>
       </c>
       <c r="S7" t="n">
-        <v>4.530598363139404e-08</v>
+        <v>3.214983834709528e-12</v>
       </c>
       <c r="T7" t="n">
-        <v>63.36525485727812</v>
+        <v>64.41130481766413</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.35451592218115, 77.37599379237508]</t>
+          <t>[50.25038716184038, 78.57222247348788]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>8.894884828691829e-12</v>
+        <v>7.513101252243359e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>8.894884828691829e-12</v>
+        <v>7.513101252243359e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>14.86314314314328</v>
+        <v>14.87583583583598</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.23747747747759</v>
+        <v>13.04568568568581</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.48880880880897</v>
+        <v>16.70598598598615</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.42000000000022</v>
+        <v>23.44000000000023</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00741806633750286</v>
+        <v>4.715150916234645e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00741806633750286</v>
+        <v>4.715150916234645e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>33.09899465026462</v>
+        <v>48.02028921193939</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[5.634738652551899, 60.56325064797734]</t>
+          <t>[21.979212300579576, 74.0613661232992]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.01927560075243062</v>
+        <v>0.0005606960677693174</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01927560075243062</v>
+        <v>0.0005606960677693174</v>
       </c>
       <c r="P8" t="n">
-        <v>2.383710942363427</v>
+        <v>2.584974135386196</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.679289766783734, 3.088132117943119]</t>
+          <t>[2.0440793041375027, 3.12586896663489]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.913744029913289e-08</v>
+        <v>1.695310558602614e-12</v>
       </c>
       <c r="S8" t="n">
-        <v>1.913744029913289e-08</v>
+        <v>1.695310558602614e-12</v>
       </c>
       <c r="T8" t="n">
-        <v>64.75078252314702</v>
+        <v>65.8302760026433</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[50.498376305376574, 79.00318874091747]</t>
+          <t>[52.09840878519252, 79.56214322009409]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>7.780887045782947e-12</v>
+        <v>1.540989558179717e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>7.780887045782947e-12</v>
+        <v>1.540989558179717e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>14.53493493493507</v>
+        <v>13.79651651651665</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.90926926926939</v>
+        <v>11.77865865865877</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.16060060060076</v>
+        <v>15.81437437437453</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.42000000000022</v>
+        <v>23.44000000000023</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007142211502062512</v>
+        <v>0.0006190411728639322</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0007142211502062512</v>
+        <v>0.0006190411728639322</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>38.72899111235963</v>
+        <v>37.06927644359089</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[12.503815417735836, 64.95416680698342]</t>
+          <t>[15.807781820286152, 58.33077106689562]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.004706386747864055</v>
+        <v>0.001025907088744171</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004706386747864055</v>
+        <v>0.001025907088744171</v>
       </c>
       <c r="P9" t="n">
-        <v>2.283079345852042</v>
+        <v>3.037816319687427</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.6792897667837332, 2.8868689249203507]</t>
+          <t>[2.333395144107734, 3.742237495267121]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.256266646265658e-09</v>
+        <v>3.538391801782836e-11</v>
       </c>
       <c r="S9" t="n">
-        <v>1.256266646265658e-09</v>
+        <v>3.538391801782836e-11</v>
       </c>
       <c r="T9" t="n">
-        <v>68.15743867293939</v>
+        <v>53.65213546254853</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[54.852793486685044, 81.46208385919374]</t>
+          <t>[40.88909076081052, 66.41518016428654]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.934008508897023e-13</v>
+        <v>7.28654914183835e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>1.934008508897023e-13</v>
+        <v>7.28654914183835e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>14.91003003003017</v>
+        <v>12.10714714714726</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.65945945945958</v>
+        <v>9.47923923923933</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.16060060060076</v>
+        <v>14.7350550550552</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.42000000000022</v>
+        <v>23.44000000000023</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.781911666998148e-06</v>
+        <v>0.002868999742974165</v>
       </c>
       <c r="I10" t="n">
-        <v>1.781911666998148e-06</v>
+        <v>0.002868999742974165</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>55.27667914351242</v>
+        <v>36.88882440857293</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[30.350489931940558, 80.20286835508429]</t>
+          <t>[11.056869286147773, 62.72077953099809]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>5.304908240333361e-05</v>
+        <v>0.006130939168785599</v>
       </c>
       <c r="O10" t="n">
-        <v>5.304908240333361e-05</v>
+        <v>0.006130939168785599</v>
       </c>
       <c r="P10" t="n">
-        <v>2.698184681461504</v>
+        <v>2.836553126664658</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.220184598032427, 3.176184764890581]</t>
+          <t>[1.993763505881811, 3.6793427474475053]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>7.993605777301127e-15</v>
+        <v>2.170266610868055e-08</v>
       </c>
       <c r="S10" t="n">
-        <v>7.993605777301127e-15</v>
+        <v>2.170266610868055e-08</v>
       </c>
       <c r="T10" t="n">
-        <v>65.21226575733287</v>
+        <v>64.44665454269415</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[52.010004227531056, 78.41452728713469]</t>
+          <t>[49.9505378622691, 78.9427712231192]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>6.108447081487611e-13</v>
+        <v>1.470379373813557e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>6.108447081487611e-13</v>
+        <v>1.470379373813557e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>13.36276276276289</v>
+        <v>12.8579779779781</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.58106106106117</v>
+        <v>9.713873873873968</v>
       </c>
       <c r="Z10" t="n">
-        <v>15.14446446446461</v>
+        <v>16.00208208208224</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.79000000000012</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.396090418394948e-05</v>
+        <v>6.831487452729768e-06</v>
       </c>
       <c r="I11" t="n">
-        <v>3.396090418394948e-05</v>
+        <v>6.831487452729768e-06</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>45.54318881190149</v>
+        <v>52.05532303314298</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[23.07796465693086, 68.00841296687211]</t>
+          <t>[30.317397447798626, 73.79324861848733]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0001799166307629996</v>
+        <v>1.653753424513127e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0001799166307629996</v>
+        <v>1.653753424513127e-05</v>
       </c>
       <c r="P11" t="n">
-        <v>2.88686892492035</v>
+        <v>3.062974218815274</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[2.3082372449798885, 3.465500604860812]</t>
+          <t>[2.5472372866944273, 3.5787111509361207]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>4.46753745109163e-13</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="S11" t="n">
-        <v>4.46753745109163e-13</v>
+        <v>1.554312234475219e-15</v>
       </c>
       <c r="T11" t="n">
-        <v>61.61336720807692</v>
+        <v>60.33643659318525</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[48.62902823168183, 74.597706184472]</t>
+          <t>[46.821599644711725, 73.85127354165878]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.106315122318847e-12</v>
+        <v>1.301003749176743e-11</v>
       </c>
       <c r="W11" t="n">
-        <v>2.106315122318847e-12</v>
+        <v>1.301003749176743e-11</v>
       </c>
       <c r="X11" t="n">
-        <v>12.31891891891899</v>
+        <v>11.74166166166173</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.2201401401402</v>
+        <v>9.861161161161222</v>
       </c>
       <c r="Z11" t="n">
-        <v>14.41769769769777</v>
+        <v>13.62216216216225</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.79000000000012</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002934131698602349</v>
+        <v>0.0003561879160609571</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002934131698602349</v>
+        <v>0.0003561879160609571</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>30.68498438606224</v>
+        <v>37.06751097604833</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[10.68568376243529, 50.68428500968919]</t>
+          <t>[15.947044081053768, 58.1879778710429]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.003424944604086599</v>
+        <v>0.0009577959128528324</v>
       </c>
       <c r="O12" t="n">
-        <v>0.003424944604086599</v>
+        <v>0.0009577959128528324</v>
       </c>
       <c r="P12" t="n">
-        <v>3.037816319687427</v>
+        <v>-2.918316298830158</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[2.1824477493406564, 3.8931848900341985]</t>
+          <t>[-3.6101585248459287, -2.226474072814387]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.045938194532141e-09</v>
+        <v>6.617084657989381e-11</v>
       </c>
       <c r="S12" t="n">
-        <v>6.045938194532141e-09</v>
+        <v>6.617084657989381e-11</v>
       </c>
       <c r="T12" t="n">
-        <v>51.5202597002986</v>
+        <v>51.70278977953673</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[39.25628137597354, 63.78423802462365]</t>
+          <t>[39.397212786913784, 64.00836677215968]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>7.422173986526559e-11</v>
+        <v>7.390998923995085e-11</v>
       </c>
       <c r="W12" t="n">
-        <v>7.422173986526559e-11</v>
+        <v>7.390998923995085e-11</v>
       </c>
       <c r="X12" t="n">
-        <v>11.77141141141147</v>
+        <v>10.64088088088094</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.668868868868913</v>
+        <v>8.118258258258304</v>
       </c>
       <c r="Z12" t="n">
-        <v>14.87395395395404</v>
+        <v>13.16350350350358</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>22.79000000000012</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.261997082058208e-06</v>
+        <v>0.00140526637301408</v>
       </c>
       <c r="I13" t="n">
-        <v>1.261997082058208e-06</v>
+        <v>0.00140526637301408</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>56.80931348883846</v>
+        <v>37.20607311156616</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[34.180649561069245, 79.43797741660768]</t>
+          <t>[12.532208047776713, 61.8799381753556]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>7.622004761786982e-06</v>
+        <v>0.003965712875882765</v>
       </c>
       <c r="O13" t="n">
-        <v>7.622004761786982e-06</v>
+        <v>0.003965712875882765</v>
       </c>
       <c r="P13" t="n">
-        <v>-2.943474197958004</v>
+        <v>-2.868000500574466</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-3.421474281387081, -2.4654741145289276]</t>
+          <t>[-3.6227374744098517, -2.11326352673908]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.10575393286183e-09</v>
       </c>
       <c r="S13" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.10575393286183e-09</v>
       </c>
       <c r="T13" t="n">
-        <v>64.52442498868685</v>
+        <v>62.2019351241828</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[51.009201511065534, 78.03964846630817]</t>
+          <t>[48.41497578848617, 75.98889445987945]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.748823308389547e-12</v>
+        <v>9.555245483738872e-12</v>
       </c>
       <c r="W13" t="n">
-        <v>1.748823308389547e-12</v>
+        <v>9.555245483738872e-12</v>
       </c>
       <c r="X13" t="n">
-        <v>10.67639639639645</v>
+        <v>10.45741741741748</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.942622622622673</v>
+        <v>7.705465465465512</v>
       </c>
       <c r="Z13" t="n">
-        <v>12.41017017017023</v>
+        <v>13.20936936936945</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.79000000000012</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0002246589376664332</v>
+        <v>1.041101453269633e-06</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0002246589376664332</v>
+        <v>1.041101453269633e-06</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>36.83721159724186</v>
+        <v>55.37465581706797</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[16.071941928874757, 57.602481265608965]</t>
+          <t>[31.900629894383883, 78.84868173975207]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.0008554962925517717</v>
+        <v>2.095974998828076e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0008554962925517717</v>
+        <v>2.095974998828076e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>-2.767368904063081</v>
+        <v>-2.64157940842385</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-3.40889533182316, -2.1258424763030024]</t>
+          <t>[-3.0818426431611585, -2.2013161736865414]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.509814661128985e-11</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="S14" t="n">
-        <v>3.509814661128985e-11</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="T14" t="n">
-        <v>66.46058657004588</v>
+        <v>62.97676337816983</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[54.6677051742024, 78.25346796588934]</t>
+          <t>[50.07303152885609, 75.88049522748356]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>8.43769498715119e-15</v>
+        <v>8.877343304902752e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>8.43769498715119e-15</v>
+        <v>8.877343304902752e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>10.03763763763769</v>
+        <v>9.631831831831891</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.71073073073077</v>
+        <v>8.026526526526574</v>
       </c>
       <c r="Z14" t="n">
-        <v>12.36454454454461</v>
+        <v>11.23713713713721</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>22.79000000000012</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.308684564844565e-05</v>
+        <v>0.0001077130992644948</v>
       </c>
       <c r="I15" t="n">
-        <v>2.308684564844565e-05</v>
+        <v>0.0001077130992644948</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>48.42129024025861</v>
+        <v>49.16859532238154</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[26.65181906932007, 70.19076141119714]</t>
+          <t>[22.787258153202515, 75.54993249156057]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>5.079719438549901e-05</v>
+        <v>0.0004971134355840068</v>
       </c>
       <c r="O15" t="n">
-        <v>5.079719438549901e-05</v>
+        <v>0.0004971134355840068</v>
       </c>
       <c r="P15" t="n">
-        <v>-1.773631888513156</v>
+        <v>-1.899421384152387</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-2.3271056693257726, -1.2201581077005401]</t>
+          <t>[-2.503210963220696, -1.2956318050840792]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>6.593252788178461e-08</v>
+        <v>9.886042895423941e-08</v>
       </c>
       <c r="S15" t="n">
-        <v>6.593252788178461e-08</v>
+        <v>9.886042895423941e-08</v>
       </c>
       <c r="T15" t="n">
-        <v>60.91827059024602</v>
+        <v>64.11429149180101</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[48.02293358201047, 73.81360759848158]</t>
+          <t>[49.64039995847297, 78.58818302512906]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.41273667711539e-12</v>
+        <v>1.634625768076603e-11</v>
       </c>
       <c r="W15" t="n">
-        <v>2.41273667711539e-12</v>
+        <v>1.634625768076603e-11</v>
       </c>
       <c r="X15" t="n">
-        <v>6.433213213213246</v>
+        <v>6.92574574574579</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.425685685685708</v>
+        <v>4.724184184184216</v>
       </c>
       <c r="Z15" t="n">
-        <v>8.440740740740786</v>
+        <v>9.127307307307364</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.79000000000012</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.074588701694857e-05</v>
+        <v>0.001080108186454987</v>
       </c>
       <c r="I16" t="n">
-        <v>2.074588701694857e-05</v>
+        <v>0.001080108186454987</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>55.22409380097406</v>
+        <v>35.85588291429749</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[30.54446095444564, 79.90372664750248]</t>
+          <t>[15.6699794238381, 56.04178640475688]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>4.655771876027615e-05</v>
+        <v>0.0008437976736881403</v>
       </c>
       <c r="O16" t="n">
-        <v>4.655771876027615e-05</v>
+        <v>0.0008437976736881403</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.710737140693541</v>
+        <v>-1.698158191129618</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-2.213895123250465, -1.2075791581366175]</t>
+          <t>[-2.4403162154010802, -0.9560001668581561]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.713196517982851e-08</v>
+        <v>3.34480202726084e-05</v>
       </c>
       <c r="S16" t="n">
-        <v>1.713196517982851e-08</v>
+        <v>3.34480202726084e-05</v>
       </c>
       <c r="T16" t="n">
-        <v>65.40628256139755</v>
+        <v>52.46189077281353</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[50.80705688997108, 80.00550823282401]</t>
+          <t>[39.955595500040545, 64.96818604558652]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>1.174216279764551e-11</v>
+        <v>7.730305284781025e-11</v>
       </c>
       <c r="W16" t="n">
-        <v>1.174216279764551e-11</v>
+        <v>7.730305284781025e-11</v>
       </c>
       <c r="X16" t="n">
-        <v>6.20508508508512</v>
+        <v>6.191891891891931</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.380060060060085</v>
+        <v>3.485805805805831</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.030110110110154</v>
+        <v>8.897977977978032</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>22.79000000000012</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>2.297124310879362e-06</v>
+        <v>0.0003402897827922136</v>
       </c>
       <c r="I17" t="n">
-        <v>2.297124310879362e-06</v>
+        <v>0.0003402897827922136</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>62.9710701062537</v>
+        <v>42.04417215757971</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[39.1561645661434, 86.785975646364]</t>
+          <t>[17.62276935432874, 66.46557496083068]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.088420031938099e-06</v>
+        <v>0.001167737123490831</v>
       </c>
       <c r="O17" t="n">
-        <v>3.088420031938099e-06</v>
+        <v>0.001167737123490831</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.496894998106848</v>
+        <v>-1.232737057264464</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-1.9497371824080787, -1.0440528138056173]</t>
+          <t>[-1.8994213841523875, -0.5660527303765397]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.284650063051231e-08</v>
+        <v>0.0005437726920489716</v>
       </c>
       <c r="S17" t="n">
-        <v>3.284650063051231e-08</v>
+        <v>0.0005437726920489716</v>
       </c>
       <c r="T17" t="n">
-        <v>76.02830642864873</v>
+        <v>57.71795535388189</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[61.24395107937357, 90.81266177792389]</t>
+          <t>[44.23115269270713, 71.20475801505665]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>1.711963903971991e-13</v>
+        <v>4.400368958101808e-11</v>
       </c>
       <c r="W17" t="n">
-        <v>1.711963903971991e-13</v>
+        <v>4.400368958101808e-11</v>
       </c>
       <c r="X17" t="n">
-        <v>5.429449449449475</v>
+        <v>4.494854854854882</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.786926926926946</v>
+        <v>2.063963963963977</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.071971971972004</v>
+        <v>6.925745745745788</v>
       </c>
     </row>
     <row r="18">
@@ -1957,69 +1957,69 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>22.79000000000012</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.988237133545347e-06</v>
+        <v>0.0002345717680823922</v>
       </c>
       <c r="I18" t="n">
-        <v>3.988237133545347e-06</v>
+        <v>0.0002345717680823922</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>59.55982923990556</v>
+        <v>40.16870596661155</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[34.11292705793103, 85.00673142188009]</t>
+          <t>[18.554226522301427, 61.78318541092168]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.367740570607957e-05</v>
+        <v>0.0005136144419319866</v>
       </c>
       <c r="O18" t="n">
-        <v>2.367740570607957e-05</v>
+        <v>0.0005136144419319866</v>
       </c>
       <c r="P18" t="n">
-        <v>-1.283052855520156</v>
+        <v>-1.38368445203154</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[-1.7358950398213873, -0.8302106712189241]</t>
+          <t>[-2.025210879791617, -0.7421580242714629]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>8.494301764194745e-07</v>
+        <v>7.864757850128967e-05</v>
       </c>
       <c r="S18" t="n">
-        <v>8.494301764194745e-07</v>
+        <v>7.864757850128967e-05</v>
       </c>
       <c r="T18" t="n">
-        <v>58.57853839043091</v>
+        <v>46.83373502600476</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[44.11535443297835, 73.04172234788348]</t>
+          <t>[34.36206812963555, 59.30540192237397]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>2.035782653564411e-10</v>
+        <v>1.500111368457624e-09</v>
       </c>
       <c r="W18" t="n">
-        <v>2.035782653564411e-10</v>
+        <v>1.500111368457624e-09</v>
       </c>
       <c r="X18" t="n">
-        <v>4.653813813813837</v>
+        <v>5.045245245245273</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.011291291291306</v>
+        <v>2.706086086086102</v>
       </c>
       <c r="Z18" t="n">
-        <v>6.296336336336369</v>
+        <v>7.384404404404442</v>
       </c>
     </row>
   </sheetData>
